--- a/fileExcel/hello2.xlsx
+++ b/fileExcel/hello2.xlsx
@@ -6,57 +6,159 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Danh sách phiếu nhập hàng" r:id="rId3" sheetId="1"/>
+    <sheet name="Danh sách sản phẩm" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
   <si>
     <t/>
   </si>
   <si>
-    <t>Mã mặt hàng nhập</t>
-  </si>
-  <si>
-    <t>Nhà cung cấp</t>
-  </si>
-  <si>
     <t>Mã sản phẩm</t>
   </si>
   <si>
-    <t>Số lượng nhập</t>
-  </si>
-  <si>
-    <t>Ngày nhập</t>
-  </si>
-  <si>
-    <t>PN342136289</t>
-  </si>
-  <si>
-    <t>Nha cung cap 8</t>
+    <t>Tên sản phẩm</t>
+  </si>
+  <si>
+    <t>Nước sản xuất</t>
+  </si>
+  <si>
+    <t>Số lượng tồn</t>
+  </si>
+  <si>
+    <t>Đơn giá</t>
+  </si>
+  <si>
+    <t>Nhóm thuốc</t>
+  </si>
+  <si>
+    <t>Đơn vị tính</t>
+  </si>
+  <si>
+    <t>Hạn sử dụng</t>
+  </si>
+  <si>
+    <t>Hoạt chất chính</t>
+  </si>
+  <si>
+    <t>Thương hiệu</t>
+  </si>
+  <si>
+    <t>Khuyến mãi</t>
+  </si>
+  <si>
+    <t>Tình trạng</t>
+  </si>
+  <si>
+    <t>Khối lượng</t>
+  </si>
+  <si>
+    <t>Đường dùng</t>
+  </si>
+  <si>
+    <t>Quy cách đóng gói</t>
+  </si>
+  <si>
+    <t>Điều kiện bảo quản</t>
+  </si>
+  <si>
+    <t>Thuốc kê đơn</t>
+  </si>
+  <si>
+    <t>Ảnh</t>
+  </si>
+  <si>
+    <t>TH122908187</t>
+  </si>
+  <si>
+    <t>sfsf</t>
+  </si>
+  <si>
+    <t>Dược phẩm</t>
+  </si>
+  <si>
+    <t>Viên</t>
+  </si>
+  <si>
+    <t>09/04/2024</t>
+  </si>
+  <si>
+    <t>sfsdf</t>
+  </si>
+  <si>
+    <t>Hello world</t>
+  </si>
+  <si>
+    <t>Đang bán</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>sdfsdfs</t>
+  </si>
+  <si>
+    <t>Không Kê Đơn</t>
+  </si>
+  <si>
+    <t>src//imgProduct//aoHoodieNamTheThao.jpg</t>
+  </si>
+  <si>
+    <t>TH479398806</t>
+  </si>
+  <si>
+    <t>paradol</t>
+  </si>
+  <si>
+    <t>Thuốc kháng sinh</t>
+  </si>
+  <si>
+    <t>Tuýt</t>
+  </si>
+  <si>
+    <t>NOVARTIS</t>
+  </si>
+  <si>
+    <t>120g</t>
+  </si>
+  <si>
+    <t>1 hộp 10 gói</t>
+  </si>
+  <si>
+    <t>Tránh ánh nắng</t>
+  </si>
+  <si>
+    <t>src//imgProduct//aoHoodieNamLongTheu.jpg</t>
   </si>
   <si>
     <t>TH623623627</t>
   </si>
   <si>
-    <t>26/03/2024</t>
-  </si>
-  <si>
-    <t>PN662626722</t>
-  </si>
-  <si>
-    <t>Nha Cung Cap 2</t>
-  </si>
-  <si>
-    <t>12/03/2024</t>
-  </si>
-  <si>
-    <t>PN770863574</t>
-  </si>
-  <si>
-    <t>18/03/2024</t>
+    <t>Thuoc cam</t>
+  </si>
+  <si>
+    <t>12/04/2023</t>
+  </si>
+  <si>
+    <t>Paracetamol</t>
+  </si>
+  <si>
+    <t>Hết hàng</t>
+  </si>
+  <si>
+    <t>Uong</t>
+  </si>
+  <si>
+    <t>QCDG1</t>
+  </si>
+  <si>
+    <t>Bao quan o noi kho rao mat</t>
+  </si>
+  <si>
+    <t>src//imgProduct//aoHoodieNamTheu.jpg</t>
   </si>
 </sst>
 </file>
@@ -101,7 +203,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -123,56 +225,200 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C2"/>
       <c r="D2" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
+        <v>12.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2"/>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C3"/>
       <c r="D3" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
+        <v>20.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3"/>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C4"/>
       <c r="D4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E4" t="n">
         <v>100.0</v>
       </c>
-      <c r="E4" t="s">
-        <v>14</v>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4"/>
+      <c r="L4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
